--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value292.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value292.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.322337968569471</v>
+        <v>1.003619074821472</v>
       </c>
       <c r="B1">
-        <v>1.79514184559506</v>
+        <v>1.643280148506165</v>
       </c>
       <c r="C1">
-        <v>1.8189948351167</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.160572411956666</v>
+        <v>2.567516803741455</v>
       </c>
       <c r="E1">
-        <v>1.861353298943715</v>
+        <v>1.301176786422729</v>
       </c>
     </row>
   </sheetData>
